--- a/excel/Split_20240929_2319/TOC_report.xlsx
+++ b/excel/Split_20240929_2319/TOC_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,39 +468,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0801CS221001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AAKASH
+CHOUHAN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>0801CS221002</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ABHAY
 BAMBORIYA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -532,27 +553,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0801CS221004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABHINAV DAVE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0801CS221004</t>
+          <t>0801CS221006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABHINAV DAVE</t>
+          <t>ABHISHEK
+KANADE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,35 +603,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0801CS221007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ADARSH
+DWIVEDI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0801CS221006</t>
+          <t>0801CS221008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ABHISHEK
-KANADE</t>
+          <t>ADARSH
+RAGHUWANSHI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -598,35 +661,55 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0801CS221009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ADITYA
+MANDLOI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0801CS221007</t>
+          <t>0801CS221010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADARSH
-DWIVEDI</t>
+          <t>ADITYA SHARMA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -635,35 +718,55 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0801CS221011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AKANKSHA
+CHOUDHARY</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0801CS221008</t>
+          <t>0801CS221013</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ADARSH
-RAGHUWANSHI</t>
+          <t>AKSHAT JAIN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -672,35 +775,55 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0801CS221014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AKSHAT PANDYA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0801CS221009</t>
+          <t>0801CS221016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADITYA
-MANDLOI</t>
+          <t>AKSHAY KUMAR
+VERMA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -716,27 +839,47 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0801CS221017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AKSHITA SINHA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0801CS221010</t>
+          <t>0801CS221018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADITYA SHARMA</t>
+          <t>AMAN AGRAWAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -745,35 +888,54 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0801CS221019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AMAN GIRWAL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>15</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F17" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0801CS221011</t>
+          <t>0801CS221020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AKANKSHA
-CHOUDHARY</t>
+          <t>AMAN JAIN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -782,34 +944,54 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0801CS221021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AMAY MALVIYA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0801CS221013</t>
+          <t>0801CS221022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AKSHAT JAIN</t>
+          <t>ANANY SHARMA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -818,417 +1000,96 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0801CS221023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ANISH AGRAWAL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0801CS221014</t>
+          <t>0801CS221024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>AKSHAT PANDYA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>11</v>
-      </c>
-      <c r="F22" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0801CS221016</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>AKSHAY KUMAR
-VERMA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>19</v>
-      </c>
-      <c r="F24" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0801CS221017</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>AKSHITA SINHA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>19</v>
-      </c>
-      <c r="F26" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0801CS221018</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>AMAN AGRAWAL</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>17</v>
-      </c>
-      <c r="F28" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0801CS221019</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>AMAN GIRWAL</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>15</v>
-      </c>
-      <c r="F30" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0801CS221020</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>AMAN JAIN</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>16</v>
-      </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0801CS221021</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>AMAY MALVIYA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>15</v>
-      </c>
-      <c r="F34" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0801CS221022</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ANANY SHARMA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>20</v>
-      </c>
-      <c r="F36" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0801CS221023</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ANISH AGRAWAL</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>18</v>
-      </c>
-      <c r="F38" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0801CS221024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>ANKIT KUMAR
 NETAM</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>0801CS221026</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>ANOOP SOLANKI</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
